--- a/gummy/gummy/MAP2.xlsx
+++ b/gummy/gummy/MAP2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\11月11日\gummy\gummy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\gummymainpro\gummy\gummy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -389,8 +389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AE20" sqref="AE20"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>

--- a/gummy/gummy/MAP2.xlsx
+++ b/gummy/gummy/MAP2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\11月11日\gummy\gummy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\11月17日超最後\gummy\gummy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -390,7 +390,7 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AE20" sqref="AE20"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
